--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.4405335770846683</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.1600860902143776</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.1760436507640619</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.2589226676181128</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.2189050081113803</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.2092858973047147</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.2261242565922426</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.2221030696990887</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.2184174879217204</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.2212550875919991</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>0.1461095239082293</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>0.1404674756571197</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>0.138950810469195</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.1386522671475241</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>0.138622195837165</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.1386294677751316</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.1386349357163434</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.138636935536488</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.1386374684951096</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.1386375721886495</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.3009522556383617</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.300932028914515</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.3788274564940332</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.3786003901802493</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.3324126568865591</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.3323668796553624</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.3227494598798836</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.3226935551690618</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.3220165614829464</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.3220499434172872</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.277211520823685</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.2772911020601591</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.3029604557230312</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.3029541336008229</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.332263827430948</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.3320750534809319</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.2830833908210232</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.2831483301089704</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.2979221055353253</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.2979263731273631</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.3045437327513891</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.3045396610692253</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.3172795435329956</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.3171875136529924</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.3088421977073981</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.3088738529622861</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.3246356793634549</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.3245596360680592</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.3435062045918168</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.3433517045561001</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.3494105120312557</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.3253332297217313</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.2974477892561462</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.2820098048767281</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.2587807438943959</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.2767339857894158</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.2598406094583892</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.2389388759631991</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.2472416961550223</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.1256028685814029</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.1096994022810173</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.1872889166452627</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.4405335770846683</v>
+        <v>0.7204349792925862</v>
       </c>
       <c r="AS2">
-        <v>0.4364296930042493</v>
+        <v>0.4115560663155731</v>
       </c>
       <c r="AT2">
-        <v>0.3922874461697745</v>
+        <v>0.3849493146645205</v>
       </c>
       <c r="AU2">
-        <v>0.477393248615564</v>
+        <v>0.4900071746274954</v>
       </c>
       <c r="AV2">
-        <v>0.1776963595792893</v>
+        <v>0.4285835461769015</v>
       </c>
       <c r="AW2">
-        <v>0.3855247152864391</v>
+        <v>0.3040446370248433</v>
       </c>
       <c r="AX2">
-        <v>0.2268573535663984</v>
+        <v>0.3874858159480963</v>
       </c>
       <c r="AY2">
-        <v>0.3204785423433725</v>
+        <v>0.3932212715797078</v>
       </c>
       <c r="AZ2">
-        <v>0.2034945379721231</v>
+        <v>0.2508140578265698</v>
       </c>
       <c r="BA2">
-        <v>0.3825123747100848</v>
+        <v>0.3647997790433188</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.1600860902143776</v>
+        <v>0.2125447459901388</v>
       </c>
       <c r="AS3">
-        <v>0.2397205819920985</v>
+        <v>0.2096866820997904</v>
       </c>
       <c r="AT3">
-        <v>0.1883892933393865</v>
+        <v>0.2534776030369639</v>
       </c>
       <c r="AU3">
-        <v>0.1751217072930074</v>
+        <v>0.2502628768115527</v>
       </c>
       <c r="AV3">
-        <v>0.1974737389196988</v>
+        <v>0.1075312644255177</v>
       </c>
       <c r="AW3">
-        <v>0.1961481283023531</v>
+        <v>0.2419174749917829</v>
       </c>
       <c r="AX3">
-        <v>0.1866975623392698</v>
+        <v>0.1431599325940648</v>
       </c>
       <c r="AY3">
-        <v>0.1454372651293702</v>
+        <v>0.2396958774833234</v>
       </c>
       <c r="AZ3">
-        <v>0.2531888831111863</v>
+        <v>0.1235621101260426</v>
       </c>
       <c r="BA3">
-        <v>0.1426655317965382</v>
+        <v>0.2775501009490285</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.1760436507640619</v>
+        <v>0.08736985811965922</v>
       </c>
       <c r="AS4">
-        <v>0.124013522909116</v>
+        <v>0.169428921763621</v>
       </c>
       <c r="AT4">
-        <v>0.1620495597382398</v>
+        <v>0.142499281321176</v>
       </c>
       <c r="AU4">
-        <v>0.1223760529810168</v>
+        <v>0.1007426028033042</v>
       </c>
       <c r="AV4">
-        <v>0.215020562775447</v>
+        <v>0.1743704826735244</v>
       </c>
       <c r="AW4">
-        <v>0.1376162558148993</v>
+        <v>0.1493422919793448</v>
       </c>
       <c r="AX4">
-        <v>0.1996482819381198</v>
+        <v>0.1562365910328292</v>
       </c>
       <c r="AY4">
-        <v>0.193993213716298</v>
+        <v>0.1156524533110163</v>
       </c>
       <c r="AZ4">
-        <v>0.1822374909949638</v>
+        <v>0.2291626859509139</v>
       </c>
       <c r="BA4">
-        <v>0.1535544232704057</v>
+        <v>0.1107837581406829</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.2589226676181128</v>
+        <v>0.3027036189876038</v>
       </c>
       <c r="AS5">
-        <v>0.236444937524263</v>
+        <v>0.2510181270538394</v>
       </c>
       <c r="AT5">
-        <v>0.2392486968175302</v>
+        <v>0.2322650370155351</v>
       </c>
       <c r="AU5">
-        <v>0.2420139546123445</v>
+        <v>0.2416520915370856</v>
       </c>
       <c r="AV5">
-        <v>0.2012152186322952</v>
+        <v>0.2495803861689737</v>
       </c>
       <c r="AW5">
-        <v>0.2230744876067118</v>
+        <v>0.2084835250926371</v>
       </c>
       <c r="AX5">
-        <v>0.2069977563391187</v>
+        <v>0.2287696841965961</v>
       </c>
       <c r="AY5">
-        <v>0.2292672335617857</v>
+        <v>0.2168791744172771</v>
       </c>
       <c r="AZ5">
-        <v>0.1965692373732457</v>
+        <v>0.2248879975444517</v>
       </c>
       <c r="BA5">
-        <v>0.2250240089805111</v>
+        <v>0.2093403799538062</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.2189050081113803</v>
+        <v>0.2524312545233538</v>
       </c>
       <c r="AS6">
-        <v>0.2262189730428047</v>
+        <v>0.2293702096191826</v>
       </c>
       <c r="AT6">
-        <v>0.2150468381628244</v>
+        <v>0.2301131111349876</v>
       </c>
       <c r="AU6">
-        <v>0.2084956369318443</v>
+        <v>0.2302277293455334</v>
       </c>
       <c r="AV6">
-        <v>0.2014195506581734</v>
+        <v>0.1961166468484083</v>
       </c>
       <c r="AW6">
-        <v>0.2056698627635323</v>
+        <v>0.2131115589238095</v>
       </c>
       <c r="AX6">
-        <v>0.1997533765434777</v>
+        <v>0.1939365621811</v>
       </c>
       <c r="AY6">
-        <v>0.1987507622352847</v>
+        <v>0.213587221175658</v>
       </c>
       <c r="AZ6">
-        <v>0.2130883751635793</v>
+        <v>0.1929454381477647</v>
       </c>
       <c r="BA6">
-        <v>0.1912349047376973</v>
+        <v>0.2204669886860973</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.2092858973047147</v>
+        <v>0.2045164306835698</v>
       </c>
       <c r="AS7">
-        <v>0.1942625371437447</v>
+        <v>0.212438581376836</v>
       </c>
       <c r="AT7">
-        <v>0.200307723395436</v>
+        <v>0.2019249111949246</v>
       </c>
       <c r="AU7">
-        <v>0.1841079925523046</v>
+        <v>0.1895223765867097</v>
       </c>
       <c r="AV7">
-        <v>0.2057769252632258</v>
+        <v>0.1945348317815014</v>
       </c>
       <c r="AW7">
-        <v>0.1856478132529153</v>
+        <v>0.192187467306315</v>
       </c>
       <c r="AX7">
-        <v>0.2004697542889305</v>
+        <v>0.185484738319759</v>
       </c>
       <c r="AY7">
-        <v>0.2004599736235524</v>
+        <v>0.182775940382354</v>
       </c>
       <c r="AZ7">
-        <v>0.2014963195756785</v>
+        <v>0.2079117156007012</v>
       </c>
       <c r="BA7">
-        <v>0.1829026940617007</v>
+        <v>0.1844255275151706</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.2261242565922426</v>
+        <v>0.2407433500137247</v>
       </c>
       <c r="AS8">
-        <v>0.2110821808238798</v>
+        <v>0.226525405054821</v>
       </c>
       <c r="AT8">
-        <v>0.2143946325791557</v>
+        <v>0.2145965795250452</v>
       </c>
       <c r="AU8">
-        <v>0.2052011678139695</v>
+        <v>0.2104781042724213</v>
       </c>
       <c r="AV8">
-        <v>0.2038638549654183</v>
+        <v>0.2124517196380902</v>
       </c>
       <c r="AW8">
-        <v>0.1996980297663936</v>
+        <v>0.1995682156645215</v>
       </c>
       <c r="AX8">
-        <v>0.2024805337326393</v>
+        <v>0.2001856518598844</v>
       </c>
       <c r="AY8">
-        <v>0.2094830583225734</v>
+        <v>0.1968359187184157</v>
       </c>
       <c r="AZ8">
-        <v>0.2011606124994889</v>
+        <v>0.2117524509759689</v>
       </c>
       <c r="BA8">
-        <v>0.1971587986702939</v>
+        <v>0.1961987297381253</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.2221030696990887</v>
+        <v>0.2408935011526114</v>
       </c>
       <c r="AS9">
-        <v>0.2142790322704299</v>
+        <v>0.2259795477066684</v>
       </c>
       <c r="AT9">
-        <v>0.2131950733197988</v>
+        <v>0.2183525016482168</v>
       </c>
       <c r="AU9">
-        <v>0.204151889644518</v>
+        <v>0.2147493916482734</v>
       </c>
       <c r="AV9">
-        <v>0.2032722370599399</v>
+        <v>0.2053618041147066</v>
       </c>
       <c r="AW9">
-        <v>0.2001690566009199</v>
+        <v>0.2031505038625523</v>
       </c>
       <c r="AX9">
-        <v>0.2014013660769274</v>
+        <v>0.1966727616016208</v>
       </c>
       <c r="AY9">
-        <v>0.2050992540337523</v>
+        <v>0.2006993482269051</v>
       </c>
       <c r="AZ9">
-        <v>0.2049979314635131</v>
+        <v>0.2053322503073499</v>
       </c>
       <c r="BA9">
-        <v>0.1937513150819221</v>
+        <v>0.2026499097215609</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.2184174879217204</v>
+        <v>0.2292191111373449</v>
       </c>
       <c r="AS10">
-        <v>0.2074987009157068</v>
+        <v>0.2217057118100479</v>
       </c>
       <c r="AT10">
-        <v>0.2091417091900677</v>
+        <v>0.2126488404141065</v>
       </c>
       <c r="AU10">
-        <v>0.1978002121614839</v>
+        <v>0.2061638517108028</v>
       </c>
       <c r="AV10">
-        <v>0.2041388772403115</v>
+        <v>0.2025897915294383</v>
       </c>
       <c r="AW10">
-        <v>0.1954670344304173</v>
+        <v>0.1992662259000408</v>
       </c>
       <c r="AX10">
-        <v>0.2012155403758317</v>
+        <v>0.1934606415500474</v>
       </c>
       <c r="AY10">
-        <v>0.2040808927543471</v>
+        <v>0.1945950062690663</v>
       </c>
       <c r="AZ10">
-        <v>0.2034732132262527</v>
+        <v>0.206837701351255</v>
       </c>
       <c r="BA10">
-        <v>0.1906748490578416</v>
+        <v>0.1961689520422347</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.2212550875919991</v>
+        <v>0.234071676387075</v>
       </c>
       <c r="AS11">
-        <v>0.2093355632690467</v>
+        <v>0.2236886077434935</v>
       </c>
       <c r="AT11">
-        <v>0.2112487748547566</v>
+        <v>0.213854006431789</v>
       </c>
       <c r="AU11">
-        <v>0.2008197817674025</v>
+        <v>0.2084241523513126</v>
       </c>
       <c r="AV11">
-        <v>0.2039619123124517</v>
+        <v>0.2060526587548695</v>
       </c>
       <c r="AW11">
-        <v>0.1973057885718955</v>
+        <v>0.199763195283878</v>
       </c>
       <c r="AX11">
-        <v>0.2016387958140811</v>
+        <v>0.1959405410361529</v>
       </c>
       <c r="AY11">
-        <v>0.2059146540336619</v>
+        <v>0.1959440901081712</v>
       </c>
       <c r="AZ11">
-        <v>0.2028985439276699</v>
+        <v>0.2082494142434273</v>
       </c>
       <c r="BA11">
-        <v>0.1930616490675656</v>
+        <v>0.1968719308882613</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>-0.2369044799778764</v>
       </c>
       <c r="AG53">
-        <v>-1.907617640529472</v>
+        <v>-9.570125536991497</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>-0.002484099245193831</v>
       </c>
       <c r="AG54">
-        <v>0.9549639710417731</v>
+        <v>-7.98477122322231</v>
       </c>
       <c r="AH54">
-        <v>-0.7088267050106625</v>
+        <v>-4.305915413260612</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.08069272220603629</v>
       </c>
       <c r="AG55">
-        <v>-0.1993670239089995</v>
+        <v>-6.402478161321477</v>
       </c>
       <c r="AH55">
-        <v>0.5146697872763625</v>
+        <v>2.877221167168091</v>
       </c>
       <c r="AI55">
-        <v>0.5680717620532238</v>
+        <v>-1.332693819518934</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.109916196100461</v>
       </c>
       <c r="AG56">
-        <v>0.2289824149471227</v>
+        <v>-5.102550867461907</v>
       </c>
       <c r="AH56">
-        <v>0.2100227553084454</v>
+        <v>-1.491328889764003</v>
       </c>
       <c r="AI56">
-        <v>0.3532220005871776</v>
+        <v>0.55678406571284</v>
       </c>
       <c r="AJ56">
-        <v>0.473412057081649</v>
+        <v>0.8725084791520108</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.1201608170081339</v>
       </c>
       <c r="AG57">
-        <v>0.064177753936555</v>
+        <v>-4.087964122208838</v>
       </c>
       <c r="AH57">
-        <v>0.1391215756246568</v>
+        <v>1.087091326550762</v>
       </c>
       <c r="AI57">
-        <v>0.1904899081118261</v>
+        <v>0.3702560343014643</v>
       </c>
       <c r="AJ57">
-        <v>-0.0632957100623851</v>
+        <v>0.5493232428879533</v>
       </c>
       <c r="AK57">
-        <v>-0.5824289441666861</v>
+        <v>0.4160762138706632</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.1237503703209239</v>
       </c>
       <c r="AG58">
-        <v>0.1265828447344913</v>
+        <v>-3.308470420507569</v>
       </c>
       <c r="AH58">
-        <v>0.1980592531462751</v>
+        <v>-0.4517906028093093</v>
       </c>
       <c r="AI58">
-        <v>0.2808262991135645</v>
+        <v>0.08067311307143032</v>
       </c>
       <c r="AJ58">
-        <v>0.3760986904956268</v>
+        <v>0.01937411262103975</v>
       </c>
       <c r="AK58">
-        <v>0.2850552411422753</v>
+        <v>-0.1433787490202071</v>
       </c>
       <c r="AL58">
-        <v>0.2306768559177155</v>
+        <v>-0.7451902454542771</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.1250079482883281</v>
       </c>
       <c r="AG59">
-        <v>0.1027868759360605</v>
+        <v>-2.712621759467706</v>
       </c>
       <c r="AH59">
-        <v>0.1905547254605784</v>
+        <v>0.4628464771107357</v>
       </c>
       <c r="AI59">
-        <v>0.28161592469943</v>
+        <v>0.1883872680816301</v>
       </c>
       <c r="AJ59">
-        <v>0.3539306385085794</v>
+        <v>0.2699050477208192</v>
       </c>
       <c r="AK59">
-        <v>0.6043938713767105</v>
+        <v>0.4250680614031956</v>
       </c>
       <c r="AL59">
-        <v>0.6191964223165023</v>
+        <v>0.3173545147394017</v>
       </c>
       <c r="AM59">
-        <v>0.4670790993637945</v>
+        <v>0.190765403126242</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.125448521450656</v>
       </c>
       <c r="AG60">
-        <v>0.1118328295395164</v>
+        <v>-2.257903313723332</v>
       </c>
       <c r="AH60">
-        <v>0.1851221365760503</v>
+        <v>-0.08161475176581826</v>
       </c>
       <c r="AI60">
-        <v>0.2650485054956099</v>
+        <v>0.2124407313900014</v>
       </c>
       <c r="AJ60">
-        <v>0.241116916831366</v>
+        <v>0.3135111777235672</v>
       </c>
       <c r="AK60">
-        <v>0.2046630556268408</v>
+        <v>0.3608566996967156</v>
       </c>
       <c r="AL60">
-        <v>0.2278811154888818</v>
+        <v>0.6588773650866746</v>
       </c>
       <c r="AM60">
-        <v>0.2249415347999282</v>
+        <v>0.5809712706761625</v>
       </c>
       <c r="AN60">
-        <v>0.2743920533817323</v>
+        <v>0.5528483950381743</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.1256028685814029</v>
       </c>
       <c r="AG61">
-        <v>0.1083894092097913</v>
+        <v>-1.911074935515134</v>
       </c>
       <c r="AH61">
-        <v>0.1876108788571712</v>
+        <v>0.2423018275082264</v>
       </c>
       <c r="AI61">
-        <v>0.270151861518971</v>
+        <v>0.1870210365761288</v>
       </c>
       <c r="AJ61">
-        <v>0.291010848589985</v>
+        <v>0.2397459764909977</v>
       </c>
       <c r="AK61">
-        <v>0.2621825847300728</v>
+        <v>0.2236905857455139</v>
       </c>
       <c r="AL61">
-        <v>0.2614964550371163</v>
+        <v>0.1933925635160192</v>
       </c>
       <c r="AM61">
-        <v>0.318761976852702</v>
+        <v>0.2701870897505477</v>
       </c>
       <c r="AN61">
-        <v>0.2721024059030258</v>
+        <v>0.2552842012442382</v>
       </c>
       <c r="AO61">
-        <v>0.4236637901383805</v>
+        <v>0.2113756838294314</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.1096994022810173</v>
+        <v>-1.646584597109457</v>
       </c>
       <c r="AH62">
-        <v>0.187606121424127</v>
+        <v>0.049552243916099</v>
       </c>
       <c r="AI62">
-        <v>0.2715284702785993</v>
+        <v>0.1892550569499432</v>
       </c>
       <c r="AJ62">
-        <v>0.3028263635112415</v>
+        <v>0.2535914254120462</v>
       </c>
       <c r="AK62">
-        <v>0.3653969394158951</v>
+        <v>0.2961256840523508</v>
       </c>
       <c r="AL62">
-        <v>0.3693998990581656</v>
+        <v>0.2703016981548741</v>
       </c>
       <c r="AM62">
-        <v>0.3541578170564038</v>
+        <v>0.2747398370642703</v>
       </c>
       <c r="AN62">
-        <v>0.3051267366515489</v>
+        <v>0.2763330492154584</v>
       </c>
       <c r="AO62">
-        <v>0.2966840445487854</v>
+        <v>0.3808980460712815</v>
       </c>
       <c r="AP62">
-        <v>0.4532959515104296</v>
+        <v>0.2933119039830148</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.1872889166452627</v>
+        <v>0.1642404088639408</v>
       </c>
       <c r="AI63">
-        <v>0.270170759387836</v>
+        <v>0.1932216512642865</v>
       </c>
       <c r="AJ63">
-        <v>0.2844555065979119</v>
+        <v>0.2665578972819784</v>
       </c>
       <c r="AK63">
-        <v>0.3064324053632201</v>
+        <v>0.3067734840347726</v>
       </c>
       <c r="AL63">
-        <v>0.3165657533602279</v>
+        <v>0.3850223149001377</v>
       </c>
       <c r="AM63">
-        <v>0.3124850474775572</v>
+        <v>0.3652154503255503</v>
       </c>
       <c r="AN63">
-        <v>0.292786518470404</v>
+        <v>0.3569989161073277</v>
       </c>
       <c r="AO63">
-        <v>0.2307941329199408</v>
+        <v>0.2922244778195421</v>
       </c>
       <c r="AP63">
-        <v>0.3631140104646867</v>
+        <v>0.2458945994320571</v>
       </c>
       <c r="AQ63">
-        <v>0.6423802920766603</v>
+        <v>0.4896889087140315</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_GDP_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0.1461095239082293</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.1404674756571197</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>0.4188977391270746</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.3413778108641709</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.8513878918070996</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.5729618394830025</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>0.4054891137635443</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.36353272663419</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.391155761739875</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.3531560236788593</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.2687545895698361</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.2993303294801051</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>0.1793912213832533</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.2341031623346345</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>-0.7451902454542771</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.190765403126242</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.5528483950381743</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0.2113756838294314</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.2933119039830148</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>0.4896889087140315</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>0.7204349792925862</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.4115560663155731</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.3849493146645205</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.4900071746274954</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.4285835461769015</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.3040446370248433</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.3874858159480963</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.3932212715797078</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.2508140578265698</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.3647997790433188</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.2775501009490285</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.4020965382952741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.1107837581406829</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.1648193638571329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.2093403799538062</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.137888861916503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.2204669886860973</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.2246336061890071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.1844255275151706</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.1963670667155742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.1961987297381253</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.1808293611245649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.2026499097215609</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.1963958306960499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.1961689520422347</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.1947212848581776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.1968719308882613</v>
+      </c>
+      <c r="AW72">
+        <v>0.1904909329952993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.1928178312549761</v>
       </c>
     </row>
   </sheetData>
